--- a/WeightDataset.xlsx
+++ b/WeightDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ACS\WeightLossDiet_CaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D816511-3784-4CEA-8405-47F5C120F1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCF7D2-21A8-4571-97F5-07129E1F485E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5BA79B98-97B1-4E36-A7B5-B727F6E769D2}"/>
   </bookViews>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1416,7 @@
         <v>13.549999999999997</v>
       </c>
       <c r="E3">
-        <f>_xlfn.NORM.DIST(D3,$G$5,$G$7,FALSE)</f>
+        <f t="shared" ref="E3:E12" si="0">_xlfn.NORM.DIST(D3,$G$5,$G$7,FALSE)</f>
         <v>4.3000238832462047E-2</v>
       </c>
     </row>
@@ -1431,11 +1431,11 @@
         <v>105.66</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D12" si="0">ABS(C4-B4)</f>
+        <f t="shared" ref="D4:D12" si="1">ABS(C4-B4)</f>
         <v>13.39</v>
       </c>
       <c r="E4">
-        <f>_xlfn.NORM.DIST(D4,$G$5,$G$7,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>4.6608440414478008E-2</v>
       </c>
       <c r="G4" t="s">
@@ -1453,11 +1453,11 @@
         <v>99.27</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>11.100000000000009</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>11.100000000000009</v>
-      </c>
-      <c r="E5">
-        <f>_xlfn.NORM.DIST(D5,$G$5,$G$7,FALSE)</f>
         <v>0.1070183577602291</v>
       </c>
       <c r="G5">
@@ -1476,11 +1476,11 @@
         <v>92.87</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>10.810000000000002</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>10.810000000000002</v>
-      </c>
-      <c r="E6">
-        <f>_xlfn.NORM.DIST(D6,$G$5,$G$7,FALSE)</f>
         <v>0.11389985306058956</v>
       </c>
       <c r="G6" t="s">
@@ -1498,11 +1498,11 @@
         <v>101.58</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>9.1000000000000085</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>9.1000000000000085</v>
-      </c>
-      <c r="E7">
-        <f>_xlfn.NORM.DIST(D7,$G$5,$G$7,FALSE)</f>
         <v>0.13516425355945205</v>
       </c>
       <c r="G7">
@@ -1521,11 +1521,11 @@
         <v>80.56</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>8.2800000000000011</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>8.2800000000000011</v>
-      </c>
-      <c r="E8">
-        <f>_xlfn.NORM.DIST(D8,$G$5,$G$7,FALSE)</f>
         <v>0.13025542373329174</v>
       </c>
       <c r="G8" t="s">
@@ -1543,11 +1543,11 @@
         <v>97</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>8.1800000000000068</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>8.1800000000000068</v>
-      </c>
-      <c r="E9">
-        <f>_xlfn.NORM.DIST(D9,$G$5,$G$7,FALSE)</f>
         <v>0.12898619973536418</v>
       </c>
       <c r="G9">
@@ -1565,11 +1565,11 @@
         <v>105.9</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>6.1299999999999955</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.1299999999999955</v>
-      </c>
-      <c r="E10">
-        <f>_xlfn.NORM.DIST(D10,$G$5,$G$7,FALSE)</f>
         <v>8.1940623441429189E-2</v>
       </c>
       <c r="G10" t="s">
@@ -1587,16 +1587,16 @@
         <v>96.18</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>5.5699999999999932</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>5.5699999999999932</v>
-      </c>
-      <c r="E11">
-        <f>_xlfn.NORM.DIST(D11,$G$5,$G$7,FALSE)</f>
         <v>6.6563955315735099E-2</v>
       </c>
       <c r="G11">
-        <f>1-0.95</f>
-        <v>5.0000000000000044E-2</v>
+        <f>0.05</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1610,11 +1610,11 @@
         <v>86.97</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>4.7199999999999989</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>4.7199999999999989</v>
-      </c>
-      <c r="E12">
-        <f>_xlfn.NORM.DIST(D12,$G$5,$G$7,FALSE)</f>
         <v>4.5327519197456562E-2</v>
       </c>
       <c r="G12" t="s">
